--- a/Test Case/DifficultTest Cases.xlsx
+++ b/Test Case/DifficultTest Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ML4NLU-Stress-Testing\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1CC167-B613-44AD-9F20-1997F9C4D732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE3B639-C255-4F73-94E2-6D1C3E55C133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>SrNo</t>
   </si>
@@ -48,36 +48,9 @@
     <t>python</t>
   </si>
   <si>
-    <t>probablity</t>
-  </si>
-  <si>
-    <t>pattern</t>
-  </si>
-  <si>
-    <t>map reduce</t>
-  </si>
-  <si>
-    <t>Oop</t>
-  </si>
-  <si>
-    <t>Lambda</t>
-  </si>
-  <si>
-    <t>recursion</t>
-  </si>
-  <si>
-    <t>Game</t>
-  </si>
-  <si>
-    <t>NO question</t>
-  </si>
-  <si>
     <t>Give RAW data set and ask it to train a model</t>
   </si>
   <si>
-    <t>OOP</t>
-  </si>
-  <si>
     <t>Window query</t>
   </si>
   <si>
@@ -103,16 +76,240 @@
   </si>
   <si>
     <t>Schema qusn</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>https://www.codechef.com/problems/PNC</t>
+  </si>
+  <si>
+    <t>Write a python program to print a below pattern, n is the input value. The pattern will be of the format 7x7
+for n = 7:
+XXXXXXX
+XX0000X
+X0X000X
+X00X00X
+X0X000X
+XX0000X
+XXXXXXX
+for n = 6:
+XXXXXX
+XX000X
+X0X00X
+X0X00X
+XX000X
+XXXXXX</t>
+  </si>
+  <si>
+    <t>Prog A5</t>
+  </si>
+  <si>
+    <t>Write a python MapReduce application that, given a collection of documents, uses MinHashing
+and LSH to identify pairs of documents that should be checked for their similarity. In more
+detail,
+• Each input line that the Mapper consumes has the format
+docid: text
+The Mapper should first extract the docid and then proceed with processing the
+remainder of the line.
+• The Mapper should, for each input line, generate the corresponding k-shingles and
+the MinHash signature with m hash functions. Both parameters should be set in the
+source code.
+• Creating the random hash function requires the number of distinct shingles,
+which cannot be computed in a single Mapper (since the collection is distributed).
+Assume in your program that there are 90,000 distinct shingles.
+• Given a MinHash signature with m entries, the mapper should emit subsequences of
+length p as key and the docid as the value. For example, if the signature is [1,7,2,1]
+and we are using subsequences of length p = 2, the Mapper should emit the keys
+1:1,7,2:7,2, 3:2,1. The additional prefix encodes the position in the signature where
+the subsequence starts (see slide 43 of Chapter 4, part 2).
+• The reducer checks if it received more than one value for a key. In this case, the
+reducer should output the key and the complete list of values received if the list of
+values includes docid 2840. We will not implement the actual comparison of the
+documents.
+Hand in your code and the output of your program for 5-shingles, m = 10 hash functions,
+and values of p = 1, p = 3 and p = 5 (so three output files, with proper naming or
+other indication which parameters were used), when run on the input file corpus_with_-
+line_numbers.txt.gz provided in Moodle (and already used in Assignment 3). This is
+an optional task.</t>
+  </si>
+  <si>
+    <t>BDA A6</t>
+  </si>
+  <si>
+    <t>Prog A6</t>
+  </si>
+  <si>
+    <t>Write a python code for this question. Consider a field array analogous to the scavenger hunt examples (i.e., it’s about repeatedly setting i=field[i]). However, all entries in the field are certainly so small that they can be used as an index for the field again. Every ‘scavenger hunt’ must therefore run in a loop at
+some point:
+With the values 4 2 1 1 5 5, for example, the following transitions occur in the array
+and thus obviously also two loops (loop 1 is 5-5-5-..., loop 2 is 1-2-1-2-...):
+Now determine how many loops there are in an input field (including the indexes to the indexes
+leading to the loops).
+In the example, the indices 0,4,5 lead into loop 1, the indices 1,2,3 lead into loop 2:
+Size: 6
+Content: 4 2 1 1 5 5
+Answer:
+Number of Loops: 2
+Assignment of Indexes: 1 2 2 2 1 1</t>
+  </si>
+  <si>
+    <t>Alice and Bob start playing a new game. Alice writes 2 numbers - N and K. She asks Bob to find an integer which is N digits long such that the absolute difference in the adjacent digits is more than or equal to K. Bob realizes that a lot of integers satisfy this condition. Can you help Bob to find the total number of N digit integers which satisfy the condition set by Alice? Write a python program for this question.
+Since the answer can be very large, print the answer modulus 1000000007.</t>
+  </si>
+  <si>
+    <t>Write a python code to implement the merge sort algorithm using recursion.</t>
+  </si>
+  <si>
+    <t>https://medium.com/co-learning-lounge/recursive-function-python-practice-examples-c37df75555e8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a recursive python code to create a  triangle of numbers where each number is the multiplication of the above two, with n number of rows which is inputted by the user. </t>
+  </si>
+  <si>
+    <t>Write a python code to solve below, We define the sigmoidal function σ(t) = 1 / (1 + e^(-t)). It has the derivative σ'(t) = σ(t) * (1 - σ(t)). The module gauss_newton contains a function generate_data(gamma=0) which generates a data set (ti, yi) where ti ∈ R and yi ∈ R with yi = σ(6ti + 1) + εi for i = 1, ..., 10. The values εi ~ N(0, 1) are independently normally distributed, and the real value β ∈ R controls the influence of εi.
+(i) Solve the problem:
+min x ∈ R^2 1/2 ||F(x)||^2,
+with Fi(x) = σ(x1 * ti + x2) - yi for i = 1, ..., 10 and γ = 0, using the Gauss-Newton algorithm as given in the lecture. Iterate until the size of the search direction is sufficiently small, i.e. until ||Δx|| &lt; δ for some tolerance δ &gt; 0. The solution is, of course, x̄ = (6, 1).
+(ii) Solve the above problem also for γ = 5e-2, 1e-3.
+(iii) Plot the norms of the search directions ||Δx|| against the iteration count k and use a logarithmic scale in the y-axis. How do the cases γ = 1e-1, 1e-3, 0 differ? Which behavior should be observed for γ = 0?</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/datasets/brendan45774/test-file</t>
+  </si>
+  <si>
+    <t>NO A8</t>
+  </si>
+  <si>
+    <t>A class UniMember is given, which can register university members in general. All other
+classes should be derived from this class. Another given class Test shall be used by you and
+extended for testing purposes to test all(!) functions and classes implemented by you.
+Implement the following model:
+1. (4 points) A class Student derived from UniMember:
+_x000F_ In addition to the data from UniMember, instances of type Student also have
+a component matriculationNumber, which is filled with a continuous and
+unique int value for each student.
+_x000F_ A student is generated by a constructor that expects the same parameters as the
+constructor for instances of type UniMember. The matriculation number is assigned
+automatically (via an instance counter analogous tocount in the example
+K5B02E_Rectangle).
+2. (4 points) A class Staff also derived from UniMember:
+_x000F_ Instances of type Staff have additional components room and phoneNumber.
+_x000F_ An employee is generated by a constructor that expects the same parameters as
+the constructor for instances of type UniMember and additionally the information
+phoneNumber and room. The values are inserted into the corresponding
+components.
+1
+3. (4 points) A class Professor derived from Staff:
+_x000F_ Instances of the type Professor additionally have an array assistants, in
+which assistants are stored. A professor can have a maximum of 10 employees.
+_x000F_ The constructor for professors looks like the constructor Staff and fills the corresponding
+components.
+4. (8 points) Generate a class Assistant that derives from Staff:
+_x000F_ Instances of type Assistant also have a component supervisor of type Professor.
+_x000F_ The constructor of the class Assistant contains data for all necessary components
+and additionally sets the superior of the assistant, so it looks like this:
+public Assistant(String name,..., Professor supervisor)
+All necessary components of the instance are filled; in addition, the just generated
+assistant is entered into the array of the assistant of the professor, who is his boss.
+If the professor already has 10 assistants, an error message is displayed and the
+program is terminated (with System.exit(0)).
+_x000F_ Implement a method with the signature
+public void resign()
+where a assistant quits its job, i.e. is removed from the assistants array of its boss.
+In addition, he should not have his own boss anymore.
+5. (4 points) Implement a consecutive, unique personnel number staffNo starting at
+1000 for all employees.
+6. (6 points) Implement an additional method with the signature
+public boolean employed()
+that returns whether an instance of any class from the model is an employee of the
+university or not. All classes of the Staff class count as busy, with the exception of
+assistants after termination.
+7. (4 points) Implement a method with the signature
+public String toString()
+in each class that returns all components of that instance.
+For professors, the method should output a list of his assistants and their data. In addition
+to the first name, surname, address, telephone number, room and employee number, the
+first name and surname of the boss, if he has one, must also be output when outputting
+the assistants.
+8. (6 points) Test the methods and classes you have implemented in the given class Test
+with static inputs. Use (implicitly) the function toString() for the output. To test
+employed() and toString(), you should cache instances of the classes you have
+defined in variables of the class UniMember.</t>
+  </si>
+  <si>
+    <t>Implement the below in python:  Model different road users in a hierarchical structure. To do this, implement the following
+model:
+a) An abstract class Traffic, from which all other classes are derived:
+_x000F_ Road users have several values like name (string), wheels (int),
+drivenKilometers (double) and maxSpeed (int).
+_x000F_ Write a constructor that receives the expected parameters and writes them into the
+variables provided.
+_x000F_ A vehicle of class Traffic also has an abstract method with the signature
+abstract boolean licenseNeeded()
+This method should return whether a driving licence is required depending on the
+road user (car, motorcycle or bicycle).
+_x000F_ Implement a method with the signature
+public void addKilometer(int km).
+This method should be used to increase the number of kilometres travelled.
+_x000F_ Implement another method with the signature String toString().
+This should return a string of the following form:
+name, drivenKilometers, maxSpeed, wheels
+b) Derive from the class Traffic the classes Car, Motorbike and Bicycle
+_x000F_ A bicycle has only two wheels and a maximum speed of 30 km/h. Furthermore,
+a bicycle can be used by a courier. Therefore this class should store a value
+carrier (boolean). Design the constructors of the class so that you do not need
+to specify a number of tires or a maximum speed.
+_x000F_ Like a bicycle, a motorbike has only two wheels, but can travel at any speed
+(depending on the model, etc.). When implementing the constructor, note that
+here too, no information about the number of wheels is necessary.
+_x000F_ A car has four wheels and can have any maximum speed like a motorcycle.
+c) Derive from the class Car a class Oldtimer. This class stores a value year (int)
+with the year of manufacture of the car. Design an appropriate constructor.
+3
+d) Extend all classes derived from Traffic (also oldtimer) with a method denoted as
+String toString() This method should call the toString() method of the
+superclass, but first specify the type of the car. This results in a string of the following
+form:
+Car: name, km, maxSpeed, wheels
+An oldtimer should call the constructor of the superclass (Car) and add the following
+addition:
+Car: name, km, maxSpeed, wheels (Oldtimer)
+e) Implement two interfaces Collectible and ProtectiveClothing
+_x000F_ Since vehicles can also always be collectibles, the classes Car, Motorbike and
+Oldtimer should have the interface Collectible The interface has only one
+method with the signature int calcValue() The value of a collector’s item
+is, for the sake of simplicity, calculated by multiplying the driven kilometers by
+the number of tires.
+_x000F_ The second interface should contain a method with the signature
+boolean needsProtectiveClothing()
+All classes derived from Traffic should have this interface and implement the
+method needsProtectiveClothing(). Cars and oldtimers do not need
+special protective clothing.</t>
+  </si>
+  <si>
+    <t>Prog A11</t>
+  </si>
+  <si>
+    <t>Prog A12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,13 +332,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -420,204 +625,246 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:D21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="90.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="90.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="51.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="388.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="216" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="D20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="D21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="D20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{415E5624-3FB4-475E-AE10-0DBD5FCE5B14}"/>
+    <hyperlink ref="F7" r:id="rId2" xr:uid="{9ED46F98-A2D7-4F4A-B2AD-C9DDACB1F434}"/>
+    <hyperlink ref="F6" r:id="rId3" xr:uid="{AF2D66B7-4F65-4364-B02B-2B9003FE573F}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{B3F5F5D5-4B53-410D-A303-6967CCF7CE7D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test Case/DifficultTest Cases.xlsx
+++ b/Test Case/DifficultTest Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ML4NLU-Stress-Testing\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE3B639-C255-4F73-94E2-6D1C3E55C133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1D8599-63A2-45D3-9ED9-CE8C57151E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>SrNo</t>
   </si>
@@ -293,12 +293,819 @@
   <si>
     <t>Prog A12</t>
   </si>
+  <si>
+    <r>
+      <t>Consider the following schema of a relational SQL Server database that represents a media centre, solve the below questions, the underlined attributes are the primary key of that table:
+• Sportsgame: {[</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Location, Year]}
+• Footballclub: {[</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Clubname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Year]}
+• Basketballclub: {[</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Clubname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Year]}
+• Footballmatch: {[</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Home, Guest]}, SID references Sportsgame, Home references
+Footballclub, Guest references Footballclub
+• Basketballmatch: {[</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Home, Guest]}, SID references Sportsgame, Home references
+Basketballclub, Guest references Basketballclub
+• Person: {[</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PNR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, FirstName, LastName, Birthyear]}
+• Commentator: {[</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PNR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Language]}, PNR references Person
+• Footballer: {[</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PNR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, StrongFoot]}, PNR references Person
+• Basketballer: {[</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PNR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Height]}, PNR references Person
+• Tennisplayer: {[</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PNR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, PlayingHand]}, PNR references Person
+• playsFootball: {[</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PNR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Clubname]}, PNR references Footballer, SID references
+Footballmatch, Clubname references Footballclub
+• playsBasketball: {[</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PNR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Clubname]}, PNR references Basketballer, SID references
+Basketballmatch, Clubname references Basketballclub
+• comments: {[</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PNR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]}, PNR references Commentator, SID references Sportsgame
+• Tennismatch: {[</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Player1, Player2]}, SID references Sportsgame, Player1 references
+Tennisplayer, Player2 references Tennisplayer
+• Set: {[</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nummer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, PointsPlayer1, PointsPlayer2]}, SID references Tennismatch
+• Goal: {[</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Minute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Clubname, PNR]}, SID references Footballmatch, Clubname
+references Footballclub, PNR references Footballer
+• BasketballScore: {[</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Second</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Clubname, PNR, Value]}, SID references Basketballmatch,
+Clubname references Basketballclub, PNR references Basketballer
+• Friendship: {[</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PNR1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PNR2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]}, PNR1 references Person, PNR2 references Person
+Ques a. Using a recursive query, output the people with whom the person with PNR = 1
+is friends only through 2 or more corner.
+Consider the table Friendship, which is symmetric, i.e., if (a, b) ∈ Friendship, then
+so is (b, a) ∈ Friendship. Persons (a, b) are friends over 0 corners if (a, b), (b, a) ∈
+Friendship. Persons (a, b) are friends over 1 corner if there is a person c and (a, c), (c, a) ∈
+Friendship ∧ (b, c), (c, b) ∈ Friendship.</t>
+    </r>
+  </si>
+  <si>
+    <t>b. Create a new view TennisResults that contains for all tennis matches the location,
+the last names of player1 and player2, and the number of sets won by player1 and
+number of sets won by player2. Edit the view. Add the columns PlayingHandPlayer1
+and PlayingHandPlayer2. Output the view.</t>
+  </si>
+  <si>
+    <t>c. Create a new view TennisComment in which you link the person numbers, first and
+last names of persons and tennis matches. In this table, for each person (tennis player
+or commentator) involved in a tennis match, there should be a row containing the
+columns location and year of the match, as well as the person number, first and last
+name of a person involved. In another column PersonInfo there should be the playing
+hand or the language of the person. Furthermore, there shall be a column type that
+indicates whether the person is a player or a commentator. Output the new view.</t>
+  </si>
+  <si>
+    <t>d. Use window queries: Output a field PercentOfAverage for each BasketballScore. It
+contains the information how big is the percentage of the value of the BasketballScore
+in relation to the average values of the same club. If a team average score has the
+value of 1.5, 200% should be the output for a BasketballScore with a value of 3.</t>
+  </si>
+  <si>
+    <t>e. Use window queries: For each football club, specify the name, year, number of games
+involved, and maximum number of goals scored in one game.</t>
+  </si>
+  <si>
+    <t>(b) Write a trigger that is executed after a new producer was included with seat in Europe
+(ContinentName = europe). The function should then assign the new producer to a
+random country with CountryID between 1 and 17.</t>
+  </si>
+  <si>
+    <t>Name the keys of the relational schema R=(A, B, C, D, E, F, G, H) with the following
+functional dependencies:
+• F = {A → F;AB → CD;C → GD;E → G;H → D}
+• F′ = {A → CE;AF → D;BE → H;CB → F;D → CE;G → CDF;H → B}
+• F′′ = {B → CE;BD → H;C → EF;D → G;H → DG}</t>
+  </si>
+  <si>
+    <t>DB A10</t>
+  </si>
+  <si>
+    <t>DB A8</t>
+  </si>
+  <si>
+    <r>
+      <t>Consider the following schema of a relational SQL Server database that represents cars and their producers, underlined attributes are the primary key of that table:
+• Continent: {[</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: integer, ContinentName: string]}
+• Country: {[</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CountryID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: integer, CountryName: string, Continent: integer]}
+(Continent references CID in relation Continent)
+• Producer: {[</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: integer, shortName: string, longName: string, Country: integer]}
+(Country references CountryID in relation Country)
+• Model: {[</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: integer, PID: integer, ModelName: string]}
+(PID references PID in relation Producer)
+• Car: {[</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CarID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: integer, ModelName: string, Description: string]}
+(ModelName is a ModelName in relation Model)
+• Data: {[</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CarID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: integer, HP: integer, Weight: integer, Year: integer]}
+(CarID references CarID in relation Car, HP might be missing)
+In Stud.IP you will find a script for creating and deleting a database Cars which corresponds
+to this scheme. Write SQL statements for the following tasks:
+(a) Write a trigger that is executed after a new ModelName is assigned to an existing
+model. The function is to check whether a car has the old ModelName and update the
+ModelName if necessary.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>There is a relational SQl Server table containing feeback from the customer about products: 
+product:{[</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prod_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cust_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, question, answer ]}
+Write a query to get me the different (values )type of questions as the new attributes of a new relation and the corresponding answers. After implementing, what will be solution if the values of the questions that should be attribute but because of some speeling mistakes it creating new attributes, how will you handle this.</t>
+    </r>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>f. Write a stored procedure to give me the details of the player PNR entered. It should give all the details about the player, how many matches won, location, club or team if available, all it's friends, how many matrches played and who was the commentator and other statistics about the player.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +1117,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -625,24 +1446,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="90.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="51.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="90.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="51.85546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,7 +1483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -679,10 +1500,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="255" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
@@ -690,10 +1514,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="405" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
@@ -701,10 +1528,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
@@ -712,10 +1542,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
@@ -723,10 +1556,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
@@ -734,10 +1570,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
@@ -745,10 +1584,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="216" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="255" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
@@ -756,10 +1598,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
@@ -767,10 +1612,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>33</v>
       </c>
@@ -778,87 +1626,192 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="285" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D20" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D30" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D31" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="1" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{415E5624-3FB4-475E-AE10-0DBD5FCE5B14}"/>
     <hyperlink ref="F7" r:id="rId2" xr:uid="{9ED46F98-A2D7-4F4A-B2AD-C9DDACB1F434}"/>
@@ -866,5 +1819,6 @@
     <hyperlink ref="F5" r:id="rId4" xr:uid="{B3F5F5D5-4B53-410D-A303-6967CCF7CE7D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Test Case/DifficultTest Cases.xlsx
+++ b/Test Case/DifficultTest Cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ML4NLU-Stress-Testing\Test Case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb91a9f572235a6e/Desktop/ML4NLU Documentation/Test Case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0666403A-8311-4B05-B378-27ABA7AAE7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{0666403A-8311-4B05-B378-27ABA7AAE7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D41383A9-547D-4A6C-BBC6-9ADD855A05B0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
   <si>
     <t>SrNo</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>https://www.codechef.com/problems/PNC</t>
   </si>
   <si>
     <t>Write a python program to print a below pattern, n is the input value. The pattern will be of the format 7x7
@@ -69,15 +66,6 @@
 XXXXXX</t>
   </si>
   <si>
-    <t>Prog A5</t>
-  </si>
-  <si>
-    <t>BDA A6</t>
-  </si>
-  <si>
-    <t>Prog A6</t>
-  </si>
-  <si>
     <t>Write a python code for this question. Consider a field array analogous to the scavenger hunt examples (i.e., it’s about repeatedly setting i=field[i]). However, all entries in the field are certainly so small that they can be used as an index for the field again. Every ‘scavenger hunt’ must therefore run in a loop at
 some point:
 With the values 4 2 1 1 5 5, for example, the following transitions occur in the array
@@ -99,21 +87,12 @@
     <t>Write a python code to implement the merge sort algorithm using recursion.</t>
   </si>
   <si>
-    <t>https://medium.com/co-learning-lounge/recursive-function-python-practice-examples-c37df75555e8</t>
-  </si>
-  <si>
     <t>Write a python code to solve below, We define the sigmoidal function σ(t) = 1 / (1 + e^(-t)). It has the derivative σ'(t) = σ(t) * (1 - σ(t)). The module gauss_newton contains a function generate_data(gamma=0) which generates a data set (ti, yi) where ti ∈ R and yi ∈ R with yi = σ(6ti + 1) + εi for i = 1, ..., 10. The values εi ~ N(0, 1) are independently normally distributed, and the real value β ∈ R controls the influence of εi.
 (i) Solve the problem:
 min x ∈ R^2 1/2 ||F(x)||^2,
 with Fi(x) = σ(x1 * ti + x2) - yi for i = 1, ..., 10 and γ = 0, using the Gauss-Newton algorithm as given in the lecture. Iterate until the size of the search direction is sufficiently small, i.e. until ||Δx|| &lt; δ for some tolerance δ &gt; 0. The solution is, of course, x̄ = (6, 1).
 (ii) Solve the above problem also for γ = 5e-2, 1e-3.
 (iii) Plot the norms of the search directions ||Δx|| against the iteration count k and use a logarithmic scale in the y-axis. How do the cases γ = 1e-1, 1e-3, 0 differ? Which behavior should be observed for γ = 0?</t>
-  </si>
-  <si>
-    <t>https://www.kaggle.com/datasets/brendan45774/test-file</t>
-  </si>
-  <si>
-    <t>NO A8</t>
   </si>
   <si>
     <t>Implement the below in python:  Model different road users in a hierarchical structure. To do this, implement the following
@@ -166,12 +145,6 @@
 special protective clothing.</t>
   </si>
   <si>
-    <t>Prog A11</t>
-  </si>
-  <si>
-    <t>Prog A12</t>
-  </si>
-  <si>
     <t>b. Create a new view TennisResults that contains for all tennis matches the location,
 the last names of player1 and player2, and the number of sets won by player1 and
 number of sets won by player2. Edit the view. Add the columns PlayingHandPlayer1
@@ -202,16 +175,7 @@
 random country with CountryID between 1 and 17.</t>
   </si>
   <si>
-    <t>DB A10</t>
-  </si>
-  <si>
-    <t>DB A8</t>
-  </si>
-  <si>
     <t>SQL</t>
-  </si>
-  <si>
-    <t>References</t>
   </si>
   <si>
     <t>GPT3.5</t>
@@ -639,23 +603,60 @@
 		  }
 }</t>
   </si>
+  <si>
+    <t>(18)</t>
+  </si>
+  <si>
+    <t>(19)</t>
+  </si>
+  <si>
+    <t>Question References</t>
+  </si>
+  <si>
+    <t>(20)</t>
+  </si>
+  <si>
+    <t>(21)</t>
+  </si>
+  <si>
+    <t>(22)</t>
+  </si>
+  <si>
+    <t>(23)</t>
+  </si>
+  <si>
+    <t>(24)</t>
+  </si>
+  <si>
+    <t>(25)</t>
+  </si>
+  <si>
+    <t>(26)</t>
+  </si>
+  <si>
+    <t>(27)</t>
+  </si>
+  <si>
+    <t>(17)</t>
+  </si>
+  <si>
+    <t>(28)</t>
+  </si>
+  <si>
+    <t>(12)</t>
+  </si>
+  <si>
+    <t>(29)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -681,7 +682,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -691,6 +692,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,33 +711,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -744,6 +755,14 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1011,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1022,40 +1041,40 @@
     <col min="3" max="3" width="19.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="90.88671875" style="1" customWidth="1"/>
     <col min="5" max="9" width="21.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="51.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="51.88671875" style="8" customWidth="1"/>
     <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="E1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>30</v>
+      <c r="J1" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -1069,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -1084,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="230.4" x14ac:dyDescent="0.3">
@@ -1098,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -1113,10 +1132,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="345.6" x14ac:dyDescent="0.3">
@@ -1127,7 +1146,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -1141,8 +1160,8 @@
       <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>10</v>
+      <c r="J4" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1153,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -1167,8 +1186,8 @@
       <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>17</v>
+      <c r="J5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -1179,7 +1198,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -1193,11 +1212,11 @@
       <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1205,7 +1224,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1219,8 +1238,8 @@
       <c r="H7" s="1">
         <v>1</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>15</v>
+      <c r="J7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
@@ -1231,7 +1250,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -1245,8 +1264,8 @@
       <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>11</v>
+      <c r="J8" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="216" x14ac:dyDescent="0.3">
@@ -1257,7 +1276,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -1271,8 +1290,8 @@
       <c r="H9" s="1">
         <v>0</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>18</v>
+      <c r="J9" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -1283,7 +1302,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1297,8 +1316,8 @@
       <c r="H10" s="1">
         <v>0</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>20</v>
+      <c r="J10" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -1309,7 +1328,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1323,8 +1342,8 @@
       <c r="H11" s="1">
         <v>1</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>21</v>
+      <c r="J11" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -1332,10 +1351,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -1349,8 +1368,8 @@
       <c r="H12" s="1">
         <v>0</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
+      <c r="J12" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -1358,10 +1377,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -1375,8 +1394,8 @@
       <c r="H13" s="1">
         <v>1</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>28</v>
+      <c r="J13" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
@@ -1384,10 +1403,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -1401,8 +1420,8 @@
       <c r="H14" s="1">
         <v>0</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>28</v>
+      <c r="J14" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -1410,10 +1429,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -1427,8 +1446,8 @@
       <c r="H15" s="1">
         <v>0</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>28</v>
+      <c r="J15" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1436,10 +1455,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -1453,8 +1472,8 @@
       <c r="H16" s="1">
         <v>0</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>28</v>
+      <c r="J16" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1462,10 +1481,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -1478,6 +1497,9 @@
       </c>
       <c r="H17" s="1">
         <v>0</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -1485,11 +1507,11 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
@@ -1501,6 +1523,9 @@
       </c>
       <c r="H18" s="1">
         <v>0</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -1508,10 +1533,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1525,8 +1550,8 @@
       <c r="H19" s="1">
         <v>1</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>27</v>
+      <c r="J19" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1534,10 +1559,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -1551,8 +1576,8 @@
       <c r="H20" s="1">
         <v>1</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>27</v>
+      <c r="J20" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -1560,10 +1585,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -1577,8 +1602,8 @@
       <c r="H21" s="1">
         <v>0</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>27</v>
+      <c r="J21" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -1586,10 +1611,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1602,6 +1627,9 @@
       </c>
       <c r="H22" s="1">
         <v>1</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -1609,10 +1637,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1625,6 +1653,9 @@
       </c>
       <c r="H23" s="1">
         <v>1</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -1632,10 +1663,10 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -1648,6 +1679,9 @@
       </c>
       <c r="H24" s="1">
         <v>0</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -1655,10 +1689,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -1671,6 +1705,9 @@
       </c>
       <c r="H25" s="1">
         <v>1</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -1678,10 +1715,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -1694,6 +1731,9 @@
       </c>
       <c r="H26" s="1">
         <v>1</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="230.4" x14ac:dyDescent="0.3">
@@ -1701,22 +1741,25 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -1724,10 +1767,10 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -1740,6 +1783,9 @@
       </c>
       <c r="H28" s="1">
         <v>0</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -1747,10 +1793,10 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -1763,6 +1809,9 @@
       </c>
       <c r="H29" s="1">
         <v>0</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -1770,10 +1819,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -1786,6 +1835,9 @@
       </c>
       <c r="H30" s="1">
         <v>1</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
@@ -1793,51 +1845,48 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="1">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E32" s="6">
+      <c r="E32" s="3">
         <f>SUM(E2:E31)</f>
         <v>9</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="3">
         <f t="shared" ref="F32:H32" si="0">SUM(F2:F31)</f>
         <v>4</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{415E5624-3FB4-475E-AE10-0DBD5FCE5B14}"/>
-    <hyperlink ref="J7" r:id="rId2" xr:uid="{9ED46F98-A2D7-4F4A-B2AD-C9DDACB1F434}"/>
-    <hyperlink ref="J6" r:id="rId3" xr:uid="{AF2D66B7-4F65-4364-B02B-2B9003FE573F}"/>
-    <hyperlink ref="J5" r:id="rId4" xr:uid="{B3F5F5D5-4B53-410D-A303-6967CCF7CE7D}"/>
-  </hyperlinks>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>